--- a/data/nzd0186/nzd0186.xlsx
+++ b/data/nzd0186/nzd0186.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J522"/>
+  <dimension ref="A1:J532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17339,6 +17339,328 @@
         <v>344.0944444444444</v>
       </c>
       <c r="J522" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>323.1522222222222</v>
+      </c>
+      <c r="C523" t="n">
+        <v>317.11</v>
+      </c>
+      <c r="D523" t="n">
+        <v>307.5133333333333</v>
+      </c>
+      <c r="E523" t="n">
+        <v>318.7653846153846</v>
+      </c>
+      <c r="F523" t="n">
+        <v>331.3090909090909</v>
+      </c>
+      <c r="G523" t="n">
+        <v>330.3366666666667</v>
+      </c>
+      <c r="H523" t="n">
+        <v>333.7342857142857</v>
+      </c>
+      <c r="I523" t="n">
+        <v>341.5322222222222</v>
+      </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 21:59:59+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>324.8444444444444</v>
+      </c>
+      <c r="C524" t="n">
+        <v>332.01</v>
+      </c>
+      <c r="D524" t="n">
+        <v>320.9066666666667</v>
+      </c>
+      <c r="E524" t="n">
+        <v>329.1746153846154</v>
+      </c>
+      <c r="F524" t="n">
+        <v>338.3245454545454</v>
+      </c>
+      <c r="G524" t="n">
+        <v>336.0233333333333</v>
+      </c>
+      <c r="H524" t="n">
+        <v>344.7014285714285</v>
+      </c>
+      <c r="I524" t="n">
+        <v>346.7144444444444</v>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>324.0811111111111</v>
+      </c>
+      <c r="C525" t="n">
+        <v>317.21</v>
+      </c>
+      <c r="D525" t="n">
+        <v>322.2866666666666</v>
+      </c>
+      <c r="E525" t="n">
+        <v>330.4769230769231</v>
+      </c>
+      <c r="F525" t="n">
+        <v>333.9645454545454</v>
+      </c>
+      <c r="G525" t="n">
+        <v>339.0533333333333</v>
+      </c>
+      <c r="H525" t="n">
+        <v>341.8742857142857</v>
+      </c>
+      <c r="I525" t="n">
+        <v>335.9611111111111</v>
+      </c>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>340.7288888888889</v>
+      </c>
+      <c r="C526" t="n">
+        <v>318.4</v>
+      </c>
+      <c r="D526" t="n">
+        <v>320.7133333333333</v>
+      </c>
+      <c r="E526" t="n">
+        <v>324.9646153846153</v>
+      </c>
+      <c r="F526" t="inlineStr"/>
+      <c r="G526" t="inlineStr"/>
+      <c r="H526" t="inlineStr"/>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>328.4077777777778</v>
+      </c>
+      <c r="C527" t="n">
+        <v>330.36</v>
+      </c>
+      <c r="D527" t="n">
+        <v>334.2366666666667</v>
+      </c>
+      <c r="E527" t="n">
+        <v>342.5292307692308</v>
+      </c>
+      <c r="F527" t="n">
+        <v>345.96</v>
+      </c>
+      <c r="G527" t="n">
+        <v>337.1633333333333</v>
+      </c>
+      <c r="H527" t="n">
+        <v>345.7357142857143</v>
+      </c>
+      <c r="I527" t="n">
+        <v>357.5577777777777</v>
+      </c>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-15 21:59:56+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>329.9722222222222</v>
+      </c>
+      <c r="C528" t="n">
+        <v>327.19</v>
+      </c>
+      <c r="D528" t="n">
+        <v>328.3133333333333</v>
+      </c>
+      <c r="E528" t="n">
+        <v>333.1661538461539</v>
+      </c>
+      <c r="F528" t="n">
+        <v>335.7363636363636</v>
+      </c>
+      <c r="G528" t="n">
+        <v>337.0766666666667</v>
+      </c>
+      <c r="H528" t="n">
+        <v>342.0628571428572</v>
+      </c>
+      <c r="I528" t="n">
+        <v>349.0322222222222</v>
+      </c>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr"/>
+      <c r="C529" t="n">
+        <v>301.96</v>
+      </c>
+      <c r="D529" t="inlineStr"/>
+      <c r="E529" t="inlineStr"/>
+      <c r="F529" t="inlineStr"/>
+      <c r="G529" t="inlineStr"/>
+      <c r="H529" t="inlineStr"/>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-31 21:59:55+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>336.3277777777778</v>
+      </c>
+      <c r="C530" t="n">
+        <v>336.04</v>
+      </c>
+      <c r="D530" t="n">
+        <v>322.6566666666667</v>
+      </c>
+      <c r="E530" t="n">
+        <v>325.5776923076923</v>
+      </c>
+      <c r="F530" t="n">
+        <v>326.8954545454546</v>
+      </c>
+      <c r="G530" t="n">
+        <v>322.9933333333333</v>
+      </c>
+      <c r="H530" t="n">
+        <v>328.0685714285714</v>
+      </c>
+      <c r="I530" t="n">
+        <v>346.3377777777778</v>
+      </c>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 21:59:59+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr"/>
+      <c r="C531" t="inlineStr"/>
+      <c r="D531" t="n">
+        <v>571.89</v>
+      </c>
+      <c r="E531" t="inlineStr"/>
+      <c r="F531" t="inlineStr"/>
+      <c r="G531" t="inlineStr"/>
+      <c r="H531" t="inlineStr"/>
+      <c r="I531" t="n">
+        <v>574.23</v>
+      </c>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>324.1055555555556</v>
+      </c>
+      <c r="C532" t="n">
+        <v>315.86</v>
+      </c>
+      <c r="D532" t="inlineStr"/>
+      <c r="E532" t="n">
+        <v>530.8092307692307</v>
+      </c>
+      <c r="F532" t="n">
+        <v>532.5345454545455</v>
+      </c>
+      <c r="G532" t="n">
+        <v>535.6566666666666</v>
+      </c>
+      <c r="H532" t="n">
+        <v>540.6957142857143</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17355,7 +17677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B628"/>
+  <dimension ref="A1:B638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23643,6 +23965,106 @@
       </c>
       <c r="B628" t="n">
         <v>0.83</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2024-12-06 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2025-01-15 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2025-01-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2025-02-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>-0.47</v>
       </c>
     </row>
   </sheetData>
@@ -23811,28 +24233,28 @@
         <v>0.0522</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02721376367280473</v>
+        <v>0.07712854737305837</v>
       </c>
       <c r="J2" t="n">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="K2" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002166385451666253</v>
+        <v>0.001777725430401</v>
       </c>
       <c r="M2" t="n">
-        <v>10.56984578780562</v>
+        <v>10.58646078767571</v>
       </c>
       <c r="N2" t="n">
-        <v>179.7952651189552</v>
+        <v>179.8167014708806</v>
       </c>
       <c r="O2" t="n">
-        <v>13.40877567561465</v>
+        <v>13.40957499217931</v>
       </c>
       <c r="P2" t="n">
-        <v>315.8557194648195</v>
+        <v>315.3736212368345</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -23888,28 +24310,28 @@
         <v>0.0476</v>
       </c>
       <c r="I3" t="n">
-        <v>0.09606267606201011</v>
+        <v>0.141982493153481</v>
       </c>
       <c r="J3" t="n">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="K3" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002144113979353657</v>
+        <v>0.004790881512599876</v>
       </c>
       <c r="M3" t="n">
-        <v>11.93687902446421</v>
+        <v>11.96833297951092</v>
       </c>
       <c r="N3" t="n">
-        <v>227.0370205009353</v>
+        <v>226.6452075371515</v>
       </c>
       <c r="O3" t="n">
-        <v>15.06774769170679</v>
+        <v>15.05474036764339</v>
       </c>
       <c r="P3" t="n">
-        <v>308.5091051311149</v>
+        <v>308.0643435894355</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -23965,28 +24387,28 @@
         <v>0.0857</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09549817789689159</v>
+        <v>0.2279429371385293</v>
       </c>
       <c r="J4" t="n">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="K4" t="n">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002422704627951577</v>
+        <v>0.00782341878529158</v>
       </c>
       <c r="M4" t="n">
-        <v>11.56001720303727</v>
+        <v>12.06185556002008</v>
       </c>
       <c r="N4" t="n">
-        <v>193.6366584250523</v>
+        <v>346.5171694201907</v>
       </c>
       <c r="O4" t="n">
-        <v>13.91533896191725</v>
+        <v>18.61497164704235</v>
       </c>
       <c r="P4" t="n">
-        <v>316.1993217812249</v>
+        <v>314.8736859040763</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -24042,28 +24464,28 @@
         <v>0.0741</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05256930980088041</v>
+        <v>0.1668946727344038</v>
       </c>
       <c r="J5" t="n">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="K5" t="n">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0008799143287698818</v>
+        <v>0.005559514772822016</v>
       </c>
       <c r="M5" t="n">
-        <v>10.18785019173692</v>
+        <v>10.6671140543552</v>
       </c>
       <c r="N5" t="n">
-        <v>163.7996425670517</v>
+        <v>265.2321231449072</v>
       </c>
       <c r="O5" t="n">
-        <v>12.79842344068408</v>
+        <v>16.28594864123387</v>
       </c>
       <c r="P5" t="n">
-        <v>322.814725257315</v>
+        <v>321.6792054703261</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -24119,28 +24541,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1078688041944914</v>
+        <v>0.2197208483240722</v>
       </c>
       <c r="J6" t="n">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="K6" t="n">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005677192060667302</v>
+        <v>0.01239663242923372</v>
       </c>
       <c r="M6" t="n">
-        <v>8.108230188376405</v>
+        <v>8.579859985381859</v>
       </c>
       <c r="N6" t="n">
-        <v>105.3415699181172</v>
+        <v>202.3734936472734</v>
       </c>
       <c r="O6" t="n">
-        <v>10.26360413880608</v>
+        <v>14.22580379617522</v>
       </c>
       <c r="P6" t="n">
-        <v>327.0356044285939</v>
+        <v>325.9231550123453</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -24196,28 +24618,28 @@
         <v>0.0674</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2001775700439563</v>
+        <v>0.3091865818070341</v>
       </c>
       <c r="J7" t="n">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="K7" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02349715127625052</v>
+        <v>0.02634329512445033</v>
       </c>
       <c r="M7" t="n">
-        <v>7.460646877380115</v>
+        <v>7.943078252045144</v>
       </c>
       <c r="N7" t="n">
-        <v>87.18775452546411</v>
+        <v>188.4169965211698</v>
       </c>
       <c r="O7" t="n">
-        <v>9.337438327799767</v>
+        <v>13.72650707649873</v>
       </c>
       <c r="P7" t="n">
-        <v>325.0565092220548</v>
+        <v>323.9858860644171</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -24273,28 +24695,28 @@
         <v>0.081</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0271489697736793</v>
+        <v>0.1213795809211341</v>
       </c>
       <c r="J8" t="n">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="K8" t="n">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004598391070917973</v>
+        <v>0.004361127102044282</v>
       </c>
       <c r="M8" t="n">
-        <v>7.162649005053647</v>
+        <v>7.597005983780623</v>
       </c>
       <c r="N8" t="n">
-        <v>83.54920991149159</v>
+        <v>178.6515175744253</v>
       </c>
       <c r="O8" t="n">
-        <v>9.140525691200239</v>
+        <v>13.36605841579429</v>
       </c>
       <c r="P8" t="n">
-        <v>339.0420606429324</v>
+        <v>338.1154557610589</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -24350,28 +24772,28 @@
         <v>0.0477</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05047869536960078</v>
+        <v>0.1693475136489408</v>
       </c>
       <c r="J9" t="n">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="K9" t="n">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001331066040548445</v>
+        <v>0.00669184223149577</v>
       </c>
       <c r="M9" t="n">
-        <v>7.881837623854002</v>
+        <v>8.491671439194691</v>
       </c>
       <c r="N9" t="n">
-        <v>98.63958504269347</v>
+        <v>223.6330791071321</v>
       </c>
       <c r="O9" t="n">
-        <v>9.93174632391975</v>
+        <v>14.95436655653231</v>
       </c>
       <c r="P9" t="n">
-        <v>341.2505585435301</v>
+        <v>340.0737406843992</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -24408,7 +24830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J522"/>
+  <dimension ref="A1:J532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47760,6 +48182,450 @@
         </is>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>-36.96169200550102,175.8432158175916</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>-36.96240879624582,175.84331211998148</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>-36.96315022498675,175.84337408318586</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>-36.963849490203344,175.84373907783635</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>-36.96450272594342,175.84419043722062</t>
+        </is>
+      </c>
+      <c r="G523" t="inlineStr">
+        <is>
+          <t>-36.96516656347502,175.8445346090562</t>
+        </is>
+      </c>
+      <c r="H523" t="inlineStr">
+        <is>
+          <t>-36.96582653461995,175.8448856444621</t>
+        </is>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>-36.96646171661409,175.84532255576855</t>
+        </is>
+      </c>
+      <c r="J523" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-06 21:59:59+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>-36.96168895683092,175.8432344280977</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>-36.96238195253486,175.8434759867496</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>-36.96312144361622,175.84352007812032</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>-36.963819426557095,175.84384974996624</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>-36.964478225712554,175.844263025075</t>
+        </is>
+      </c>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>-36.965146565554704,175.84459337587904</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>-36.965787919580755,175.84499895622798</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>-36.96644247478773,175.84537555463956</t>
+        </is>
+      </c>
+      <c r="J524" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>-36.9616903320357,175.84322603320774</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>-36.962408616087416,175.84331321975887</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>-36.96311847807928,175.84353512089663</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>-36.96381566526177,175.84386359624375</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>-36.964493452244355,175.8442179128157</t>
+        </is>
+      </c>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>-36.96513591014498,175.84462468831714</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>-36.965797873890864,175.8449697463939</t>
+        </is>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>-36.96648240237734,175.8452655796783</t>
+        </is>
+      </c>
+      <c r="J525" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-22 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>-36.96166033962794,175.84340911993695</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>-36.96240647220175,175.84332630710946</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>-36.96312185907777,175.84351797067814</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>-36.963831585772176,175.84380498877684</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr"/>
+      <c r="G526" t="inlineStr"/>
+      <c r="H526" t="inlineStr"/>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>-36.96168253719908,175.8432736164659</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>-36.96238492517146,175.84345784043603</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>-36.96309279817075,175.84366538256515</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>-36.9637808559881,175.84399173762517</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>-36.96445156019329,175.84434202792056</t>
+        </is>
+      </c>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>-36.9651425565896,175.84460515679743</t>
+        </is>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>-36.96578427788095,175.84500964239066</t>
+        </is>
+      </c>
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>-36.96640221292565,175.84548644991412</t>
+        </is>
+      </c>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-15 21:59:56+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>-36.96167971872248,175.84329082170905</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>-36.962390636229365,175.84342297751397</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>-36.963105527113555,175.84360081493844</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>-36.963807898282,175.84389218843415</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>-36.964487264483516,175.84423624555222</t>
+        </is>
+      </c>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>-36.96514286136476,175.8446042611721</t>
+        </is>
+      </c>
+      <c r="H528" t="inlineStr">
+        <is>
+          <t>-36.965797209935076,175.84497169470043</t>
+        </is>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>-36.96643386876631,175.84539925867102</t>
+        </is>
+      </c>
+      <c r="J528" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr"/>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>-36.96243609012729,175.84314550363814</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr"/>
+      <c r="E529" t="inlineStr"/>
+      <c r="F529" t="inlineStr"/>
+      <c r="G529" t="inlineStr"/>
+      <c r="H529" t="inlineStr"/>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-31 21:59:55+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>-36.96166826863617,175.84336071799484</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>-36.96237469208366,175.84352030773914</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>-36.96311768297124,175.84353915410455</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>-36.96382981509999,175.84381150707998</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>-36.964518139763875,175.84414476996307</t>
+        </is>
+      </c>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>-36.96519238724294,175.84445872195636</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>-36.96584648341943,175.8448271066445</t>
+        </is>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>-36.96644387336893,175.84537170244985</t>
+        </is>
+      </c>
+      <c r="J530" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-08 21:59:59+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr"/>
+      <c r="C531" t="inlineStr"/>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>-36.962582064939696,175.846255916476</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr"/>
+      <c r="F531" t="inlineStr"/>
+      <c r="G531" t="inlineStr"/>
+      <c r="H531" t="inlineStr"/>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>-36.96559767691072,175.84770234114907</t>
+        </is>
+      </c>
+      <c r="J531" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>-36.961690287997136,175.84322630203977</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>-36.96241104822492,175.84329837276348</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr"/>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>-36.963237051476064,175.84599353382956</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>-36.96379996483357,175.8462724673171</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr">
+        <is>
+          <t>-36.96444451069245,175.84665639465226</t>
+        </is>
+      </c>
+      <c r="H532" t="inlineStr">
+        <is>
+          <t>-36.96509781106086,175.8470239353939</t>
+        </is>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0186/nzd0186.xlsx
+++ b/data/nzd0186/nzd0186.xlsx
@@ -24078,7 +24078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24169,35 +24169,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -24256,27 +24261,28 @@
       <c r="P2" t="n">
         <v>315.3736212368345</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.83966186460717 -36.96227413697455, 175.8497794824444 -36.96061658792308)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.8396618646072</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.96227413697455</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.8497794824444</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.96061658792308</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.8447206735258</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.96144536244881</v>
       </c>
     </row>
@@ -24333,27 +24339,28 @@
       <c r="P3" t="n">
         <v>308.0643435894355</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.8398245865304 -36.962980046301794, 175.8499422615302 -36.96132249067355)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.8398245865304</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.96298004630179</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.8499422615302</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.96132249067355</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.8448834240303</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.96215126848767</v>
       </c>
     </row>
@@ -24410,27 +24417,28 @@
       <c r="P4" t="n">
         <v>314.8736859040763</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.84002197999263 -36.963811002207116, 175.85004993789815 -36.96183394658852)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.8400219799926</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.96381100220712</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.8500499378981</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.96183394658852</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.8450359589454</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.96282247439782</v>
       </c>
     </row>
@@ -24487,27 +24495,28 @@
       <c r="P5" t="n">
         <v>321.6792054703261</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.84034988275346 -36.96477009107978, 175.8501301777733 -36.962113168256906)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.8403498827535</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.96477009107978</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.8501301777733</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.96211316825691</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.8452400302634</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.96344162966834</v>
       </c>
     </row>
@@ -24564,27 +24573,28 @@
       <c r="P6" t="n">
         <v>325.9231550123453</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.84076237602417 -36.965659715723504, 175.85027956237363 -36.96244728723781)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.8407623760242</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.9656597157235</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.8502795623736</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.96244728723781</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.8455209691989</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.96405350148066</v>
       </c>
     </row>
@@ -24641,27 +24651,28 @@
       <c r="P7" t="n">
         <v>323.9858860644171</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.84112080737643 -36.96632818847677, 175.85062624561772 -36.96309341710986)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.8411208073764</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.96632818847677</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.8506262456177</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.96309341710986</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.8458735264971</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.96471080279332</v>
       </c>
     </row>
@@ -24718,27 +24729,28 @@
       <c r="P8" t="n">
         <v>338.1154557610589</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.84143746715148 -36.967001555223135, 175.85094084308722 -36.96376280622097)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.8414374671515</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.96700155522313</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.8509408430872</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.96376280622097</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.8461891551194</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.96538218072205</v>
       </c>
     </row>
@@ -24795,27 +24807,28 @@
       <c r="P9" t="n">
         <v>340.0737406843992</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.84182962534786 -36.967729791398206, 175.85123627054625 -36.96431447489471)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.8418296253479</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.96772979139821</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.8512362705463</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.96431447489471</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.8465329479471</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.96602213314645</v>
       </c>
     </row>

--- a/data/nzd0186/nzd0186.xlsx
+++ b/data/nzd0186/nzd0186.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J532"/>
+  <dimension ref="A1:J535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17613,21 +17613,21 @@
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
         <is>
-          <t>2025-02-08 21:59:59+00:00</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr"/>
-      <c r="C531" t="inlineStr"/>
-      <c r="D531" t="n">
-        <v>571.89</v>
-      </c>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>324.1055555555556</v>
+      </c>
+      <c r="C531" t="n">
+        <v>315.86</v>
+      </c>
+      <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr"/>
       <c r="G531" t="inlineStr"/>
       <c r="H531" t="inlineStr"/>
-      <c r="I531" t="n">
-        <v>574.23</v>
-      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr">
         <is>
           <t>L9</t>
@@ -17637,30 +17637,118 @@
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
         <is>
-          <t>2025-02-24 21:59:57+00:00</t>
+          <t>2025-03-12 21:59:53+00:00</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>324.1055555555556</v>
-      </c>
-      <c r="C532" t="n">
-        <v>315.86</v>
-      </c>
+        <v>328.3188888888889</v>
+      </c>
+      <c r="C532" t="inlineStr"/>
       <c r="D532" t="inlineStr"/>
-      <c r="E532" t="n">
-        <v>530.8092307692307</v>
-      </c>
+      <c r="E532" t="inlineStr"/>
       <c r="F532" t="n">
-        <v>532.5345454545455</v>
-      </c>
-      <c r="G532" t="n">
-        <v>535.6566666666666</v>
-      </c>
-      <c r="H532" t="n">
-        <v>540.6957142857143</v>
-      </c>
+        <v>343.3281818181818</v>
+      </c>
+      <c r="G532" t="inlineStr"/>
+      <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>344.2088888888889</v>
+      </c>
+      <c r="C533" t="n">
+        <v>337.14</v>
+      </c>
+      <c r="D533" t="n">
+        <v>337.1133333333333</v>
+      </c>
+      <c r="E533" t="n">
+        <v>340.7730769230769</v>
+      </c>
+      <c r="F533" t="n">
+        <v>339.4954545454545</v>
+      </c>
+      <c r="G533" t="n">
+        <v>340.1966666666667</v>
+      </c>
+      <c r="H533" t="n">
+        <v>353.4257142857143</v>
+      </c>
+      <c r="I533" t="n">
+        <v>359.7388888888889</v>
+      </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr"/>
+      <c r="C534" t="inlineStr"/>
+      <c r="D534" t="inlineStr"/>
+      <c r="E534" t="n">
+        <v>333.9430769230769</v>
+      </c>
+      <c r="F534" t="n">
+        <v>334.0627272727273</v>
+      </c>
+      <c r="G534" t="n">
+        <v>336.7266666666667</v>
+      </c>
+      <c r="H534" t="n">
+        <v>351.6514285714285</v>
+      </c>
+      <c r="I534" t="n">
+        <v>343.9088888888889</v>
+      </c>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 21:59:43+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>315.0288888888889</v>
+      </c>
+      <c r="C535" t="n">
+        <v>372.81</v>
+      </c>
+      <c r="D535" t="n">
+        <v>372.3233333333333</v>
+      </c>
+      <c r="E535" t="n">
+        <v>345.4046153846153</v>
+      </c>
+      <c r="F535" t="n">
+        <v>306.08</v>
+      </c>
+      <c r="G535" t="inlineStr"/>
+      <c r="H535" t="inlineStr"/>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17677,7 +17765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B638"/>
+  <dimension ref="A1:B642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24065,6 +24153,46 @@
       </c>
       <c r="B638" t="n">
         <v>-0.47</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2025-04-13 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
@@ -24238,28 +24366,28 @@
         <v>0.0522</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07712854737305837</v>
+        <v>0.09488699627458823</v>
       </c>
       <c r="J2" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K2" t="n">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001777725430401</v>
+        <v>0.002699484508654204</v>
       </c>
       <c r="M2" t="n">
-        <v>10.58646078767571</v>
+        <v>10.603588565744</v>
       </c>
       <c r="N2" t="n">
-        <v>179.8167014708806</v>
+        <v>180.5824462380268</v>
       </c>
       <c r="O2" t="n">
-        <v>13.40957499217931</v>
+        <v>13.4380968235099</v>
       </c>
       <c r="P2" t="n">
-        <v>315.3736212368345</v>
+        <v>315.2005032397107</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24316,28 +24444,28 @@
         <v>0.0476</v>
       </c>
       <c r="I3" t="n">
-        <v>0.141982493153481</v>
+        <v>0.1830446537662338</v>
       </c>
       <c r="J3" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K3" t="n">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004790881512599876</v>
+        <v>0.007660765184104079</v>
       </c>
       <c r="M3" t="n">
-        <v>11.96833297951092</v>
+        <v>12.13585044524699</v>
       </c>
       <c r="N3" t="n">
-        <v>226.6452075371515</v>
+        <v>236.1186770649809</v>
       </c>
       <c r="O3" t="n">
-        <v>15.05474036764339</v>
+        <v>15.36615361972478</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0643435894355</v>
+        <v>307.6615155484829</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24394,28 +24522,28 @@
         <v>0.0857</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2279429371385293</v>
+        <v>0.1422945721616507</v>
       </c>
       <c r="J4" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K4" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00782341878529158</v>
+        <v>0.00535491102087049</v>
       </c>
       <c r="M4" t="n">
-        <v>12.06185556002008</v>
+        <v>11.58723746419991</v>
       </c>
       <c r="N4" t="n">
-        <v>346.5171694201907</v>
+        <v>198.2968027272644</v>
       </c>
       <c r="O4" t="n">
-        <v>18.61497164704235</v>
+        <v>14.08178975582523</v>
       </c>
       <c r="P4" t="n">
-        <v>314.8736859040763</v>
+        <v>315.728476916188</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24472,28 +24600,28 @@
         <v>0.0741</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1668946727344038</v>
+        <v>0.09136495326689982</v>
       </c>
       <c r="J5" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K5" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005559514772822016</v>
+        <v>0.002733303618880134</v>
       </c>
       <c r="M5" t="n">
-        <v>10.6671140543552</v>
+        <v>10.17269357847877</v>
       </c>
       <c r="N5" t="n">
-        <v>265.2321231449072</v>
+        <v>162.9529907628613</v>
       </c>
       <c r="O5" t="n">
-        <v>16.28594864123387</v>
+        <v>12.7653041782349</v>
       </c>
       <c r="P5" t="n">
-        <v>321.6792054703261</v>
+        <v>322.4290884840546</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24550,28 +24678,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2197208483240722</v>
+        <v>0.1249203637053217</v>
       </c>
       <c r="J6" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K6" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01239663242923372</v>
+        <v>0.007759496775098906</v>
       </c>
       <c r="M6" t="n">
-        <v>8.579859985381859</v>
+        <v>8.129349562814459</v>
       </c>
       <c r="N6" t="n">
-        <v>202.3734936472734</v>
+        <v>105.8070621543419</v>
       </c>
       <c r="O6" t="n">
-        <v>14.22580379617522</v>
+        <v>10.28625598331783</v>
       </c>
       <c r="P6" t="n">
-        <v>325.9231550123453</v>
+        <v>326.8675118647629</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24628,28 +24756,28 @@
         <v>0.0674</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3091865818070341</v>
+        <v>0.2184172360273547</v>
       </c>
       <c r="J7" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K7" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02634329512445033</v>
+        <v>0.02865942986149483</v>
       </c>
       <c r="M7" t="n">
-        <v>7.943078252045144</v>
+        <v>7.441306266888161</v>
       </c>
       <c r="N7" t="n">
-        <v>188.4169965211698</v>
+        <v>86.45729732239262</v>
       </c>
       <c r="O7" t="n">
-        <v>13.72650707649873</v>
+        <v>9.298241625296292</v>
       </c>
       <c r="P7" t="n">
-        <v>323.9858860644171</v>
+        <v>324.8779503175367</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24706,28 +24834,28 @@
         <v>0.081</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1213795809211341</v>
+        <v>0.03823343107273829</v>
       </c>
       <c r="J8" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K8" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004361127102044282</v>
+        <v>0.000933631233686727</v>
       </c>
       <c r="M8" t="n">
-        <v>7.597005983780623</v>
+        <v>7.162244728547407</v>
       </c>
       <c r="N8" t="n">
-        <v>178.6515175744253</v>
+        <v>83.3101837742303</v>
       </c>
       <c r="O8" t="n">
-        <v>13.36605841579429</v>
+        <v>9.127441250111135</v>
       </c>
       <c r="P8" t="n">
-        <v>338.1154557610589</v>
+        <v>338.9327403874572</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24784,28 +24912,28 @@
         <v>0.0477</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1693475136489408</v>
+        <v>0.06937891156434146</v>
       </c>
       <c r="J9" t="n">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K9" t="n">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00669184223149577</v>
+        <v>0.002573700104681942</v>
       </c>
       <c r="M9" t="n">
-        <v>8.491671439194691</v>
+        <v>7.877008615855307</v>
       </c>
       <c r="N9" t="n">
-        <v>223.6330791071321</v>
+        <v>98.2650736383419</v>
       </c>
       <c r="O9" t="n">
-        <v>14.95436655653231</v>
+        <v>9.912874136109158</v>
       </c>
       <c r="P9" t="n">
-        <v>340.0737406843992</v>
+        <v>341.0632704487732</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24843,7 +24971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J532"/>
+  <dimension ref="A1:J535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48570,25 +48698,25 @@
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
         <is>
-          <t>2025-02-08 21:59:59+00:00</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr"/>
-      <c r="C531" t="inlineStr"/>
-      <c r="D531" t="inlineStr">
-        <is>
-          <t>-36.962582064939696,175.846255916476</t>
-        </is>
-      </c>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>-36.961690287997136,175.84322630203977</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>-36.96241104822492,175.84329837276348</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr"/>
       <c r="G531" t="inlineStr"/>
       <c r="H531" t="inlineStr"/>
-      <c r="I531" t="inlineStr">
-        <is>
-          <t>-36.96559767691072,175.84770234114907</t>
-        </is>
-      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr">
         <is>
           <t>L9</t>
@@ -48598,42 +48726,158 @@
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
         <is>
-          <t>2025-02-24 21:59:57+00:00</t>
+          <t>2025-03-12 21:59:53+00:00</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>-36.961690287997136,175.84322630203977</t>
-        </is>
-      </c>
-      <c r="C532" t="inlineStr">
-        <is>
-          <t>-36.96241104822492,175.84329837276348</t>
-        </is>
-      </c>
+          <t>-36.96168269733973,175.8432726388952</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr"/>
       <c r="D532" t="inlineStr"/>
-      <c r="E532" t="inlineStr">
-        <is>
-          <t>-36.963237051476064,175.84599353382956</t>
-        </is>
-      </c>
+      <c r="E532" t="inlineStr"/>
       <c r="F532" t="inlineStr">
         <is>
-          <t>-36.96379996483357,175.8462724673171</t>
-        </is>
-      </c>
-      <c r="G532" t="inlineStr">
-        <is>
-          <t>-36.96444451069245,175.84665639465226</t>
-        </is>
-      </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>-36.96509781106086,175.8470239353939</t>
-        </is>
-      </c>
+          <t>-36.96446075137393,175.8443147969189</t>
+        </is>
+      </c>
+      <c r="G532" t="inlineStr"/>
+      <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>-36.96165407007276,175.8434473918004</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>-36.96237271031997,175.84353240527807</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>-36.96308661634767,175.84369673982272</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>-36.96378592809061,175.84397306602366</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>-36.964474136516074,175.8442751402907</t>
+        </is>
+      </c>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>-36.965131889454774,175.8446365036792</t>
+        </is>
+      </c>
+      <c r="H533" t="inlineStr">
+        <is>
+          <t>-36.96575720151215,175.84508909486206</t>
+        </is>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>-36.96639411433439,175.84550875622412</t>
+        </is>
+      </c>
+      <c r="J533" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr"/>
+      <c r="C534" t="inlineStr"/>
+      <c r="D534" t="inlineStr"/>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>-36.96380565438786,175.84390044876258</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>-36.96449310936183,175.8442189286883</t>
+        </is>
+      </c>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>-36.96514409218749,175.8446006442236</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>-36.96576344874872,175.84507076308773</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>-36.96645289194568,175.84534686207243</t>
+        </is>
+      </c>
+      <c r="J534" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-13 21:59:43+00:00</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>-36.96170664027875,175.84312647980727</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>-36.96230844647337,175.84392469508933</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>-36.96301095103765,175.84408054784168</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>-36.96377255133053,175.8440223089932</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>-36.96459083371748,175.84392939520174</t>
+        </is>
+      </c>
+      <c r="G535" t="inlineStr"/>
+      <c r="H535" t="inlineStr"/>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0186/nzd0186.xlsx
+++ b/data/nzd0186/nzd0186.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J535"/>
+  <dimension ref="A1:J536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17751,6 +17751,38 @@
       <c r="J535" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>314.4811111111111</v>
+      </c>
+      <c r="C536" t="inlineStr"/>
+      <c r="D536" t="inlineStr"/>
+      <c r="E536" t="n">
+        <v>318.8630769230769</v>
+      </c>
+      <c r="F536" t="n">
+        <v>328.1581818181818</v>
+      </c>
+      <c r="G536" t="n">
+        <v>327.8833333333333</v>
+      </c>
+      <c r="H536" t="n">
+        <v>333.5514285714286</v>
+      </c>
+      <c r="I536" t="n">
+        <v>335.7811111111111</v>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -17765,7 +17797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B642"/>
+  <dimension ref="A1:B643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24193,6 +24225,16 @@
       </c>
       <c r="B642" t="n">
         <v>0.22</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -24366,28 +24408,28 @@
         <v>0.0522</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09488699627458823</v>
+        <v>0.09330094308488084</v>
       </c>
       <c r="J2" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K2" t="n">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002699484508654204</v>
+        <v>0.002624018040671361</v>
       </c>
       <c r="M2" t="n">
-        <v>10.603588565744</v>
+        <v>10.58468794424066</v>
       </c>
       <c r="N2" t="n">
-        <v>180.5824462380268</v>
+        <v>180.1457857113589</v>
       </c>
       <c r="O2" t="n">
-        <v>13.4380968235099</v>
+        <v>13.42183987802562</v>
       </c>
       <c r="P2" t="n">
-        <v>315.2005032397107</v>
+        <v>315.2160888631038</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24447,7 +24489,7 @@
         <v>0.1830446537662338</v>
       </c>
       <c r="J3" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K3" t="n">
         <v>409</v>
@@ -24525,7 +24567,7 @@
         <v>0.1422945721616507</v>
       </c>
       <c r="J4" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K4" t="n">
         <v>410</v>
@@ -24600,28 +24642,28 @@
         <v>0.0741</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09136495326689982</v>
+        <v>0.08857625270294928</v>
       </c>
       <c r="J5" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K5" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002733303618880134</v>
+        <v>0.002580801345435813</v>
       </c>
       <c r="M5" t="n">
-        <v>10.17269357847877</v>
+        <v>10.16151168610685</v>
       </c>
       <c r="N5" t="n">
-        <v>162.9529907628613</v>
+        <v>162.6415450150755</v>
       </c>
       <c r="O5" t="n">
-        <v>12.7653041782349</v>
+        <v>12.75309942778913</v>
       </c>
       <c r="P5" t="n">
-        <v>322.4290884840546</v>
+        <v>322.4571134757958</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24678,28 +24720,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1249203637053217</v>
+        <v>0.1240222526191145</v>
       </c>
       <c r="J6" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K6" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007759496775098906</v>
+        <v>0.007686289174687611</v>
       </c>
       <c r="M6" t="n">
-        <v>8.129349562814459</v>
+        <v>8.114549022695343</v>
       </c>
       <c r="N6" t="n">
-        <v>105.8070621543419</v>
+        <v>105.5637650817378</v>
       </c>
       <c r="O6" t="n">
-        <v>10.28625598331783</v>
+        <v>10.27442285881488</v>
       </c>
       <c r="P6" t="n">
-        <v>326.8675118647629</v>
+        <v>326.8765487657382</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24756,28 +24798,28 @@
         <v>0.0674</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2184172360273547</v>
+        <v>0.2171668010947651</v>
       </c>
       <c r="J7" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K7" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02865942986149483</v>
+        <v>0.02847902676277081</v>
       </c>
       <c r="M7" t="n">
-        <v>7.441306266888161</v>
+        <v>7.429592379963437</v>
       </c>
       <c r="N7" t="n">
-        <v>86.45729732239262</v>
+        <v>86.26362352188754</v>
       </c>
       <c r="O7" t="n">
-        <v>9.298241625296292</v>
+        <v>9.287821247304857</v>
       </c>
       <c r="P7" t="n">
-        <v>324.8779503175367</v>
+        <v>324.8903716198539</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24834,28 +24876,28 @@
         <v>0.081</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03823343107273829</v>
+        <v>0.03520109510010302</v>
       </c>
       <c r="J8" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K8" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000933631233686727</v>
+        <v>0.0007946701544773171</v>
       </c>
       <c r="M8" t="n">
-        <v>7.162244728547407</v>
+        <v>7.161221577938403</v>
       </c>
       <c r="N8" t="n">
-        <v>83.3101837742303</v>
+        <v>83.20744424643573</v>
       </c>
       <c r="O8" t="n">
-        <v>9.127441250111135</v>
+        <v>9.121811456417838</v>
       </c>
       <c r="P8" t="n">
-        <v>338.9327403874572</v>
+        <v>338.9628707681101</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24912,28 +24954,28 @@
         <v>0.0477</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06937891156434146</v>
+        <v>0.0660364688727563</v>
       </c>
       <c r="J9" t="n">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K9" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002573700104681942</v>
+        <v>0.002341274813965177</v>
       </c>
       <c r="M9" t="n">
-        <v>7.877008615855307</v>
+        <v>7.872611113466759</v>
       </c>
       <c r="N9" t="n">
-        <v>98.2650736383419</v>
+        <v>98.15027116784661</v>
       </c>
       <c r="O9" t="n">
-        <v>9.912874136109158</v>
+        <v>9.90708186944302</v>
       </c>
       <c r="P9" t="n">
-        <v>341.0632704487732</v>
+        <v>341.096780896665</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -24971,7 +25013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J535"/>
+  <dimension ref="A1:J536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48883,6 +48925,50 @@
         </is>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>-36.96170762713802,175.8431204555236</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr"/>
+      <c r="D536" t="inlineStr"/>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>-36.96384920805166,175.84374011651255</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>-36.96451372992078,175.84415783522164</t>
+        </is>
+      </c>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>-36.96517519093965,175.84450925595033</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>-36.96582717845457,175.84488375519365</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>-36.966483070724244,175.8452637388069</t>
+        </is>
+      </c>
+      <c r="J536" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0186/nzd0186.xlsx
+++ b/data/nzd0186/nzd0186.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J536"/>
+  <dimension ref="A1:J538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17763,8 +17763,12 @@
       <c r="B536" t="n">
         <v>314.4811111111111</v>
       </c>
-      <c r="C536" t="inlineStr"/>
-      <c r="D536" t="inlineStr"/>
+      <c r="C536" t="n">
+        <v>316.45</v>
+      </c>
+      <c r="D536" t="n">
+        <v>316.9166666666666</v>
+      </c>
       <c r="E536" t="n">
         <v>318.8630769230769</v>
       </c>
@@ -17783,6 +17787,78 @@
       <c r="J536" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>325.0722222222223</v>
+      </c>
+      <c r="C537" t="n">
+        <v>334.87</v>
+      </c>
+      <c r="D537" t="n">
+        <v>319.3533333333333</v>
+      </c>
+      <c r="E537" t="n">
+        <v>330.7961538461539</v>
+      </c>
+      <c r="F537" t="n">
+        <v>334.6863636363636</v>
+      </c>
+      <c r="G537" t="n">
+        <v>340.3466666666667</v>
+      </c>
+      <c r="H537" t="n">
+        <v>344.8728571428572</v>
+      </c>
+      <c r="I537" t="n">
+        <v>354.1022222222222</v>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>312.1555555555556</v>
+      </c>
+      <c r="C538" t="n">
+        <v>308.33</v>
+      </c>
+      <c r="D538" t="n">
+        <v>322.1833333333333</v>
+      </c>
+      <c r="E538" t="n">
+        <v>327.33</v>
+      </c>
+      <c r="F538" t="n">
+        <v>328.8918181818182</v>
+      </c>
+      <c r="G538" t="n">
+        <v>329.0366666666667</v>
+      </c>
+      <c r="H538" t="n">
+        <v>341.6042857142857</v>
+      </c>
+      <c r="I538" t="n">
+        <v>334.0455555555556</v>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -17797,7 +17873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B643"/>
+  <dimension ref="A1:B645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24235,6 +24311,26 @@
       </c>
       <c r="B643" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>-0.65</v>
       </c>
     </row>
   </sheetData>
@@ -24408,28 +24504,28 @@
         <v>0.0522</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09330094308488084</v>
+        <v>0.09429314723260157</v>
       </c>
       <c r="J2" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K2" t="n">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002624018040671361</v>
+        <v>0.002705692427583228</v>
       </c>
       <c r="M2" t="n">
-        <v>10.58468794424066</v>
+        <v>10.56359116600157</v>
       </c>
       <c r="N2" t="n">
-        <v>180.1457857113589</v>
+        <v>179.4463651551063</v>
       </c>
       <c r="O2" t="n">
-        <v>13.42183987802562</v>
+        <v>13.39575922279534</v>
       </c>
       <c r="P2" t="n">
-        <v>315.2160888631038</v>
+        <v>315.2063419245692</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24486,28 +24582,28 @@
         <v>0.0476</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1830446537662338</v>
+        <v>0.1936512782127672</v>
       </c>
       <c r="J3" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K3" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007660765184104079</v>
+        <v>0.008648913517732115</v>
       </c>
       <c r="M3" t="n">
-        <v>12.13585044524699</v>
+        <v>12.12548619175087</v>
       </c>
       <c r="N3" t="n">
-        <v>236.1186770649809</v>
+        <v>235.7002781561373</v>
       </c>
       <c r="O3" t="n">
-        <v>15.36615361972478</v>
+        <v>15.35253328138836</v>
       </c>
       <c r="P3" t="n">
-        <v>307.6615155484829</v>
+        <v>307.5567485282842</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24564,28 +24660,28 @@
         <v>0.0857</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1422945721616507</v>
+        <v>0.1424508498359336</v>
       </c>
       <c r="J4" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K4" t="n">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00535491102087049</v>
+        <v>0.005446214073129285</v>
       </c>
       <c r="M4" t="n">
-        <v>11.58723746419991</v>
+        <v>11.51583815235954</v>
       </c>
       <c r="N4" t="n">
-        <v>198.2968027272644</v>
+        <v>196.8899930394836</v>
       </c>
       <c r="O4" t="n">
-        <v>14.08178975582523</v>
+        <v>14.03174946467772</v>
       </c>
       <c r="P4" t="n">
-        <v>315.728476916188</v>
+        <v>315.72684962254</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24642,28 +24738,28 @@
         <v>0.0741</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08857625270294928</v>
+        <v>0.0926263567612</v>
       </c>
       <c r="J5" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K5" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002580801345435813</v>
+        <v>0.002847583812317422</v>
       </c>
       <c r="M5" t="n">
-        <v>10.16151168610685</v>
+        <v>10.13426276149312</v>
       </c>
       <c r="N5" t="n">
-        <v>162.6415450150755</v>
+        <v>161.9596701796177</v>
       </c>
       <c r="O5" t="n">
-        <v>12.75309942778913</v>
+        <v>12.72633765777169</v>
       </c>
       <c r="P5" t="n">
-        <v>322.4571134757958</v>
+        <v>322.4163083006551</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24720,28 +24816,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1240222526191145</v>
+        <v>0.1256293288215558</v>
       </c>
       <c r="J6" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K6" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007686289174687611</v>
+        <v>0.007958827559582771</v>
       </c>
       <c r="M6" t="n">
-        <v>8.114549022695343</v>
+        <v>8.089816712959085</v>
       </c>
       <c r="N6" t="n">
-        <v>105.5637650817378</v>
+        <v>105.117219891751</v>
       </c>
       <c r="O6" t="n">
-        <v>10.27442285881488</v>
+        <v>10.25266891554345</v>
       </c>
       <c r="P6" t="n">
-        <v>326.8765487657382</v>
+        <v>326.8603474228335</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24798,28 +24894,28 @@
         <v>0.0674</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2171668010947651</v>
+        <v>0.2211990289341304</v>
       </c>
       <c r="J7" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K7" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02847902676277081</v>
+        <v>0.02973070665234634</v>
       </c>
       <c r="M7" t="n">
-        <v>7.429592379963437</v>
+        <v>7.42084242094622</v>
       </c>
       <c r="N7" t="n">
-        <v>86.26362352188754</v>
+        <v>86.08641519802019</v>
       </c>
       <c r="O7" t="n">
-        <v>9.287821247304857</v>
+        <v>9.278276520885772</v>
       </c>
       <c r="P7" t="n">
-        <v>324.8903716198539</v>
+        <v>324.8502354743279</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24876,28 +24972,28 @@
         <v>0.081</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03520109510010302</v>
+        <v>0.03838331058322898</v>
       </c>
       <c r="J8" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K8" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007946701544773171</v>
+        <v>0.000953621050924669</v>
       </c>
       <c r="M8" t="n">
-        <v>7.161221577938403</v>
+        <v>7.142106032851803</v>
       </c>
       <c r="N8" t="n">
-        <v>83.20744424643573</v>
+        <v>82.87884054902986</v>
       </c>
       <c r="O8" t="n">
-        <v>9.121811456417838</v>
+        <v>9.103781661981458</v>
       </c>
       <c r="P8" t="n">
-        <v>338.9628707681101</v>
+        <v>338.9311750787436</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -24954,28 +25050,28 @@
         <v>0.0477</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0660364688727563</v>
+        <v>0.06722977451033493</v>
       </c>
       <c r="J9" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="K9" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002341274813965177</v>
+        <v>0.002439027029743079</v>
       </c>
       <c r="M9" t="n">
-        <v>7.872611113466759</v>
+        <v>7.883539837824218</v>
       </c>
       <c r="N9" t="n">
-        <v>98.15027116784661</v>
+        <v>98.16923050906421</v>
       </c>
       <c r="O9" t="n">
-        <v>9.90708186944302</v>
+        <v>9.908038681245861</v>
       </c>
       <c r="P9" t="n">
-        <v>341.096780896665</v>
+        <v>341.0848283037894</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25013,7 +25109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J536"/>
+  <dimension ref="A1:J538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42087,7 +42183,7 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>-36.96578263810974,175.84501445411547</t>
+          <t>-36.965782638109744,175.84501445411547</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -48936,8 +49032,16 @@
           <t>-36.96170762713802,175.8431204555236</t>
         </is>
       </c>
-      <c r="C536" t="inlineStr"/>
-      <c r="D536" t="inlineStr"/>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>-36.96240998529097,175.8433048614505</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>-36.9631300178756,175.84347658486854</t>
+        </is>
+      </c>
       <c r="E536" t="inlineStr">
         <is>
           <t>-36.96384920805166,175.84374011651255</t>
@@ -48966,6 +49070,110 @@
       <c r="J536" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>-36.96168854647129,175.84323693312302</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>-36.96237679995825,175.84350744035606</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>-36.96312478163383,175.84350314591165</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>-36.963814743266525,175.8438669903399</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>-36.964490931422674,175.84422538136036</t>
+        </is>
+      </c>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>-36.96513136195888,175.84463805379949</t>
+        </is>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>-36.965787315984166,175.84500072741525</t>
+        </is>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>-36.96641504359435,175.84545110979994</t>
+        </is>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>-36.96171181678263,175.8430948798103</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>-36.96242461411398,175.8432155595031</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>-36.963118700136455,175.8435339945052</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>-36.96382475413039,175.8438301378117</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>-36.96451116782986,175.84416542605146</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>-36.96517113509415,175.84452117466662</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>-36.96579882455479,175.84496695677316</t>
+        </is>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>-36.96648951490736,175.84524598916838</t>
+        </is>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0186/nzd0186.xlsx
+++ b/data/nzd0186/nzd0186.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J538"/>
+  <dimension ref="A1:J541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17857,6 +17857,114 @@
         <v>334.0455555555556</v>
       </c>
       <c r="J538" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>313.9044444444444</v>
+      </c>
+      <c r="C539" t="n">
+        <v>317.44</v>
+      </c>
+      <c r="D539" t="n">
+        <v>304.0766666666667</v>
+      </c>
+      <c r="E539" t="n">
+        <v>309.4753846153847</v>
+      </c>
+      <c r="F539" t="n">
+        <v>316.8818181818182</v>
+      </c>
+      <c r="G539" t="n">
+        <v>315.3533333333333</v>
+      </c>
+      <c r="H539" t="n">
+        <v>318.77</v>
+      </c>
+      <c r="I539" t="n">
+        <v>321.7244444444444</v>
+      </c>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>314.0633333333333</v>
+      </c>
+      <c r="C540" t="n">
+        <v>326.88</v>
+      </c>
+      <c r="D540" t="n">
+        <v>321.21</v>
+      </c>
+      <c r="E540" t="n">
+        <v>326.0761538461539</v>
+      </c>
+      <c r="F540" t="n">
+        <v>331.8027272727272</v>
+      </c>
+      <c r="G540" t="n">
+        <v>337.25</v>
+      </c>
+      <c r="H540" t="n">
+        <v>341.5257142857143</v>
+      </c>
+      <c r="I540" t="n">
+        <v>349.9933333333333</v>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>286.6655555555556</v>
+      </c>
+      <c r="C541" t="n">
+        <v>302.1</v>
+      </c>
+      <c r="D541" t="n">
+        <v>317.4733333333334</v>
+      </c>
+      <c r="E541" t="n">
+        <v>327.5207692307692</v>
+      </c>
+      <c r="F541" t="n">
+        <v>335.4390909090909</v>
+      </c>
+      <c r="G541" t="n">
+        <v>355.0466666666667</v>
+      </c>
+      <c r="H541" t="n">
+        <v>353.1828571428572</v>
+      </c>
+      <c r="I541" t="n">
+        <v>338.5955555555556</v>
+      </c>
+      <c r="J541" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17873,7 +17981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B645"/>
+  <dimension ref="A1:B649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24331,6 +24439,46 @@
       </c>
       <c r="B645" t="n">
         <v>-0.65</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2025-06-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>-0.83</v>
       </c>
     </row>
   </sheetData>
@@ -24504,28 +24652,28 @@
         <v>0.0522</v>
       </c>
       <c r="I2" t="n">
-        <v>0.09429314723260157</v>
+        <v>0.07559347070127147</v>
       </c>
       <c r="J2" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="K2" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002705692427583228</v>
+        <v>0.001744394510173497</v>
       </c>
       <c r="M2" t="n">
-        <v>10.56359116600157</v>
+        <v>10.58193189035065</v>
       </c>
       <c r="N2" t="n">
-        <v>179.4463651551063</v>
+        <v>180.5471279997035</v>
       </c>
       <c r="O2" t="n">
-        <v>13.39575922279534</v>
+        <v>13.43678265060887</v>
       </c>
       <c r="P2" t="n">
-        <v>315.2063419245692</v>
+        <v>315.391033478214</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24582,28 +24730,28 @@
         <v>0.0476</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1936512782127672</v>
+        <v>0.1977109420513878</v>
       </c>
       <c r="J3" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="K3" t="n">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008648913517732115</v>
+        <v>0.009114760682249035</v>
       </c>
       <c r="M3" t="n">
-        <v>12.12548619175087</v>
+        <v>12.11069386567416</v>
       </c>
       <c r="N3" t="n">
-        <v>235.7002781561373</v>
+        <v>234.8114148805465</v>
       </c>
       <c r="O3" t="n">
-        <v>15.35253328138836</v>
+        <v>15.32355751385906</v>
       </c>
       <c r="P3" t="n">
-        <v>307.5567485282842</v>
+        <v>307.5165885412165</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24660,28 +24808,28 @@
         <v>0.0857</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1424508498359336</v>
+        <v>0.135276925102159</v>
       </c>
       <c r="J4" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="K4" t="n">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005446214073129285</v>
+        <v>0.004971946789924186</v>
       </c>
       <c r="M4" t="n">
-        <v>11.51583815235954</v>
+        <v>11.48021054730313</v>
       </c>
       <c r="N4" t="n">
-        <v>196.8899930394836</v>
+        <v>196.046459442356</v>
       </c>
       <c r="O4" t="n">
-        <v>14.03174946467772</v>
+        <v>14.00165916748283</v>
       </c>
       <c r="P4" t="n">
-        <v>315.72684962254</v>
+        <v>315.7999062491153</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24738,28 +24886,28 @@
         <v>0.0741</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0926263567612</v>
+        <v>0.08743151217366976</v>
       </c>
       <c r="J5" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="K5" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002847583812317422</v>
+        <v>0.002565739365174791</v>
       </c>
       <c r="M5" t="n">
-        <v>10.13426276149312</v>
+        <v>10.10674901830726</v>
       </c>
       <c r="N5" t="n">
-        <v>161.9596701796177</v>
+        <v>161.3769765476595</v>
       </c>
       <c r="O5" t="n">
-        <v>12.72633765777169</v>
+        <v>12.7034238120146</v>
       </c>
       <c r="P5" t="n">
-        <v>322.4163083006551</v>
+        <v>322.4687223695064</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24816,28 +24964,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1256293288215558</v>
+        <v>0.1228226077492348</v>
       </c>
       <c r="J6" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="K6" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007958827559582771</v>
+        <v>0.007685374498159758</v>
       </c>
       <c r="M6" t="n">
-        <v>8.089816712959085</v>
+        <v>8.080552566332894</v>
       </c>
       <c r="N6" t="n">
-        <v>105.117219891751</v>
+        <v>104.8592338962422</v>
       </c>
       <c r="O6" t="n">
-        <v>10.25266891554345</v>
+        <v>10.24007977977917</v>
       </c>
       <c r="P6" t="n">
-        <v>326.8603474228335</v>
+        <v>326.8886796157885</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -24894,28 +25042,28 @@
         <v>0.0674</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2211990289341304</v>
+        <v>0.2287362889102056</v>
       </c>
       <c r="J7" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="K7" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02973070665234634</v>
+        <v>0.0314489142972586</v>
       </c>
       <c r="M7" t="n">
-        <v>7.42084242094622</v>
+        <v>7.478092404784342</v>
       </c>
       <c r="N7" t="n">
-        <v>86.08641519802019</v>
+        <v>87.56340961626677</v>
       </c>
       <c r="O7" t="n">
-        <v>9.278276520885772</v>
+        <v>9.357532239659491</v>
       </c>
       <c r="P7" t="n">
-        <v>324.8502354743279</v>
+        <v>324.7749280482021</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -24972,28 +25120,28 @@
         <v>0.081</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03838331058322898</v>
+        <v>0.03548931319007857</v>
       </c>
       <c r="J8" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="K8" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000953621050924669</v>
+        <v>0.0008131712556037618</v>
       </c>
       <c r="M8" t="n">
-        <v>7.142106032851803</v>
+        <v>7.177595558607528</v>
       </c>
       <c r="N8" t="n">
-        <v>82.87884054902986</v>
+        <v>83.76551172812817</v>
       </c>
       <c r="O8" t="n">
-        <v>9.103781661981458</v>
+        <v>9.152350065864404</v>
       </c>
       <c r="P8" t="n">
-        <v>338.9311750787436</v>
+        <v>338.9599835953896</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25050,28 +25198,28 @@
         <v>0.0477</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06722977451033493</v>
+        <v>0.05888422408184948</v>
       </c>
       <c r="J9" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="K9" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002439027029743079</v>
+        <v>0.001877233513529086</v>
       </c>
       <c r="M9" t="n">
-        <v>7.883539837824218</v>
+        <v>7.898128325068493</v>
       </c>
       <c r="N9" t="n">
-        <v>98.16923050906421</v>
+        <v>98.67439321665839</v>
       </c>
       <c r="O9" t="n">
-        <v>9.908038681245861</v>
+        <v>9.9334985386146</v>
       </c>
       <c r="P9" t="n">
-        <v>341.0848283037894</v>
+        <v>341.1688547728139</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25109,7 +25257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J538"/>
+  <dimension ref="A1:J541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49177,6 +49325,162 @@
         </is>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>-36.96170866604227,175.84311411352905</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>-36.96240820172307,175.8433157492469</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>-36.96315761012352,175.84333662154924</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>-36.963876321234686,175.84364030541707</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>-36.96455311050108,175.84404116024288</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>-36.96521925422766,175.84437976900173</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>-36.96587922333322,175.8447310342967</t>
+        </is>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>-36.96653526358376,175.84511998028063</t>
+        </is>
+      </c>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>-36.96170837979316,175.84311586093796</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>-36.96239119472346,175.84341956820583</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>-36.9631207917713,175.8435233846244</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>-36.9638283754566,175.84381680677916</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>-36.964501002007346,175.84419554480354</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>-36.96514225181443,175.84460605242273</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>-36.965799101203004,175.84496614497874</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>-36.96643030011276,175.84540908800173</t>
+        </is>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>-36.96175773837659,175.84281454876802</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>-36.962435837907655,175.84314704332775</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>-36.963128821634825,175.84348265285</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>-36.96382420315549,175.84383216609135</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>-36.96448830265599,175.84423316971618</t>
+        </is>
+      </c>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>-36.9650796672681,175.8447899654784</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>-36.96575805660911,175.8450865856822</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>-36.9664726205807,175.84529252230502</t>
+        </is>
+      </c>
+      <c r="J541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0186/nzd0186.xlsx
+++ b/data/nzd0186/nzd0186.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J541"/>
+  <dimension ref="A1:J543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17965,6 +17965,66 @@
         <v>338.5955555555556</v>
       </c>
       <c r="J541" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr"/>
+      <c r="C542" t="inlineStr"/>
+      <c r="D542" t="inlineStr"/>
+      <c r="E542" t="n">
+        <v>341.7892307692308</v>
+      </c>
+      <c r="F542" t="n">
+        <v>327.8863636363636</v>
+      </c>
+      <c r="G542" t="inlineStr"/>
+      <c r="H542" t="inlineStr"/>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 21:59:40+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>291.6977777777778</v>
+      </c>
+      <c r="C543" t="n">
+        <v>301.07</v>
+      </c>
+      <c r="D543" t="n">
+        <v>298.1666666666667</v>
+      </c>
+      <c r="E543" t="n">
+        <v>319.7815384615384</v>
+      </c>
+      <c r="F543" t="n">
+        <v>333.0418181818182</v>
+      </c>
+      <c r="G543" t="n">
+        <v>328.1633333333333</v>
+      </c>
+      <c r="H543" t="n">
+        <v>340.1114285714286</v>
+      </c>
+      <c r="I543" t="n">
+        <v>337.1177777777777</v>
+      </c>
+      <c r="J543" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -17981,7 +18041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B649"/>
+  <dimension ref="A1:B652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24479,6 +24539,36 @@
       </c>
       <c r="B649" t="n">
         <v>-0.83</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2025-07-18 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>-0.1</v>
       </c>
     </row>
   </sheetData>
@@ -24652,28 +24742,28 @@
         <v>0.0522</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07559347070127147</v>
+        <v>0.06307344915810449</v>
       </c>
       <c r="J2" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K2" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001744394510173497</v>
+        <v>0.001210439542927766</v>
       </c>
       <c r="M2" t="n">
-        <v>10.58193189035065</v>
+        <v>10.62205756932179</v>
       </c>
       <c r="N2" t="n">
-        <v>180.5471279997035</v>
+        <v>181.7359179459755</v>
       </c>
       <c r="O2" t="n">
-        <v>13.43678265060887</v>
+        <v>13.48094647812147</v>
       </c>
       <c r="P2" t="n">
-        <v>315.391033478214</v>
+        <v>315.5151254369407</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24730,28 +24820,28 @@
         <v>0.0476</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1977109420513878</v>
+        <v>0.1923715690310546</v>
       </c>
       <c r="J3" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K3" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009114760682249035</v>
+        <v>0.00866410414299823</v>
       </c>
       <c r="M3" t="n">
-        <v>12.11069386567416</v>
+        <v>12.10744355853843</v>
       </c>
       <c r="N3" t="n">
-        <v>234.8114148805465</v>
+        <v>234.5651730093733</v>
       </c>
       <c r="O3" t="n">
-        <v>15.32355751385906</v>
+        <v>15.31552065746944</v>
       </c>
       <c r="P3" t="n">
-        <v>307.5165885412165</v>
+        <v>307.5697002961203</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24808,28 +24898,28 @@
         <v>0.0857</v>
       </c>
       <c r="I4" t="n">
-        <v>0.135276925102159</v>
+        <v>0.1254328037832015</v>
       </c>
       <c r="J4" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K4" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004971946789924186</v>
+        <v>0.004275369329611367</v>
       </c>
       <c r="M4" t="n">
-        <v>11.48021054730313</v>
+        <v>11.50577143341904</v>
       </c>
       <c r="N4" t="n">
-        <v>196.046459442356</v>
+        <v>196.6385959247457</v>
       </c>
       <c r="O4" t="n">
-        <v>14.00165916748283</v>
+        <v>14.02278845040264</v>
       </c>
       <c r="P4" t="n">
-        <v>315.7999062491153</v>
+        <v>315.9005828639684</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24886,28 +24976,28 @@
         <v>0.0741</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08743151217366976</v>
+        <v>0.09296168595656371</v>
       </c>
       <c r="J5" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K5" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002565739365174791</v>
+        <v>0.002913952601369507</v>
       </c>
       <c r="M5" t="n">
-        <v>10.10674901830726</v>
+        <v>10.11202980579991</v>
       </c>
       <c r="N5" t="n">
-        <v>161.3769765476595</v>
+        <v>161.3575018172731</v>
       </c>
       <c r="O5" t="n">
-        <v>12.7034238120146</v>
+        <v>12.70265727386491</v>
       </c>
       <c r="P5" t="n">
-        <v>322.4687223695064</v>
+        <v>322.4126711178367</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -24964,28 +25054,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1228226077492348</v>
+        <v>0.1231925004529861</v>
       </c>
       <c r="J6" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K6" t="n">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007685374498159758</v>
+        <v>0.007803287088512745</v>
       </c>
       <c r="M6" t="n">
-        <v>8.080552566332894</v>
+        <v>8.054751475701972</v>
       </c>
       <c r="N6" t="n">
-        <v>104.8592338962422</v>
+        <v>104.3999717076477</v>
       </c>
       <c r="O6" t="n">
-        <v>10.24007977977917</v>
+        <v>10.21763043506897</v>
       </c>
       <c r="P6" t="n">
-        <v>326.8886796157885</v>
+        <v>326.8849245265789</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25042,28 +25132,28 @@
         <v>0.0674</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2287362889102056</v>
+        <v>0.2275572867592385</v>
       </c>
       <c r="J7" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K7" t="n">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0314489142972586</v>
+        <v>0.03128270115484433</v>
       </c>
       <c r="M7" t="n">
-        <v>7.478092404784342</v>
+        <v>7.466269717201715</v>
       </c>
       <c r="N7" t="n">
-        <v>87.56340961626677</v>
+        <v>87.36892797703362</v>
       </c>
       <c r="O7" t="n">
-        <v>9.357532239659491</v>
+        <v>9.347134746917561</v>
       </c>
       <c r="P7" t="n">
-        <v>324.7749280482021</v>
+        <v>324.786739167612</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25120,28 +25210,28 @@
         <v>0.081</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03548931319007857</v>
+        <v>0.03559862306554023</v>
       </c>
       <c r="J8" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K8" t="n">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0008131712556037618</v>
+        <v>0.0008222754426907564</v>
       </c>
       <c r="M8" t="n">
-        <v>7.177595558607528</v>
+        <v>7.161253228724108</v>
       </c>
       <c r="N8" t="n">
-        <v>83.76551172812817</v>
+        <v>83.56900860077964</v>
       </c>
       <c r="O8" t="n">
-        <v>9.152350065864404</v>
+        <v>9.141608644039605</v>
       </c>
       <c r="P8" t="n">
-        <v>338.9599835953896</v>
+        <v>338.9588883314512</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25198,28 +25288,28 @@
         <v>0.0477</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05888422408184948</v>
+        <v>0.0563176631300026</v>
       </c>
       <c r="J9" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K9" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001877233513529086</v>
+        <v>0.001724659922162641</v>
       </c>
       <c r="M9" t="n">
-        <v>7.898128325068493</v>
+        <v>7.890818824858927</v>
       </c>
       <c r="N9" t="n">
-        <v>98.67439321665839</v>
+        <v>98.51692309431145</v>
       </c>
       <c r="O9" t="n">
-        <v>9.9334985386146</v>
+        <v>9.925569157197559</v>
       </c>
       <c r="P9" t="n">
-        <v>341.1688547728139</v>
+        <v>341.1948007725267</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25257,7 +25347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J541"/>
+  <dimension ref="A1:J543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49481,6 +49571,86 @@
         </is>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr"/>
+      <c r="C542" t="inlineStr"/>
+      <c r="D542" t="inlineStr"/>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>-36.963782993247584,175.84398386987226</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>-36.96451467919597,175.8441550227579</t>
+        </is>
+      </c>
+      <c r="G542" t="inlineStr"/>
+      <c r="H542" t="inlineStr"/>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-18 21:59:40+00:00</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>-36.96174867261138,175.8428698916031</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>-36.9624376935231,175.84313571561114</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>-36.963170310239576,175.8432721991429</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>-36.96384655538091,175.84374988170416</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>-36.96449667470466,175.844208365494</t>
+        </is>
+      </c>
+      <c r="G543" t="inlineStr">
+        <is>
+          <t>-36.96517420628362,175.84451214951162</t>
+        </is>
+      </c>
+      <c r="H543" t="inlineStr">
+        <is>
+          <t>-36.965804080870036,175.84495153267827</t>
+        </is>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>-36.96647810762888,175.8452774089809</t>
+        </is>
+      </c>
+      <c r="J543" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0186/nzd0186.xlsx
+++ b/data/nzd0186/nzd0186.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J543"/>
+  <dimension ref="A1:J547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18025,6 +18025,150 @@
         <v>337.1177777777777</v>
       </c>
       <c r="J543" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>309.5677777777778</v>
+      </c>
+      <c r="C544" t="n">
+        <v>308.21</v>
+      </c>
+      <c r="D544" t="n">
+        <v>311.1166666666666</v>
+      </c>
+      <c r="E544" t="n">
+        <v>323.3969230769231</v>
+      </c>
+      <c r="F544" t="n">
+        <v>324.3954545454546</v>
+      </c>
+      <c r="G544" t="n">
+        <v>325.3133333333333</v>
+      </c>
+      <c r="H544" t="n">
+        <v>337.7557142857143</v>
+      </c>
+      <c r="I544" t="n">
+        <v>341.7777777777778</v>
+      </c>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>319.7666666666667</v>
+      </c>
+      <c r="C545" t="n">
+        <v>307.25</v>
+      </c>
+      <c r="D545" t="n">
+        <v>310.22</v>
+      </c>
+      <c r="E545" t="n">
+        <v>319.6307692307692</v>
+      </c>
+      <c r="F545" t="n">
+        <v>321.3881818181818</v>
+      </c>
+      <c r="G545" t="n">
+        <v>329.54</v>
+      </c>
+      <c r="H545" t="n">
+        <v>339.17</v>
+      </c>
+      <c r="I545" t="n">
+        <v>343.1966666666667</v>
+      </c>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>316.8344444444444</v>
+      </c>
+      <c r="C546" t="n">
+        <v>303.58</v>
+      </c>
+      <c r="D546" t="n">
+        <v>305.2366666666666</v>
+      </c>
+      <c r="E546" t="n">
+        <v>317.2653846153846</v>
+      </c>
+      <c r="F546" t="n">
+        <v>320.1218181818182</v>
+      </c>
+      <c r="G546" t="n">
+        <v>328.1433333333333</v>
+      </c>
+      <c r="H546" t="n">
+        <v>333.43</v>
+      </c>
+      <c r="I546" t="n">
+        <v>339.9944444444445</v>
+      </c>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>330.1633333333333</v>
+      </c>
+      <c r="C547" t="n">
+        <v>303.74</v>
+      </c>
+      <c r="D547" t="n">
+        <v>327.58</v>
+      </c>
+      <c r="E547" t="n">
+        <v>333.1615384615384</v>
+      </c>
+      <c r="F547" t="n">
+        <v>326.2536363636364</v>
+      </c>
+      <c r="G547" t="n">
+        <v>330.1</v>
+      </c>
+      <c r="H547" t="n">
+        <v>354.9157142857143</v>
+      </c>
+      <c r="I547" t="n">
+        <v>335.4933333333333</v>
+      </c>
+      <c r="J547" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -18041,7 +18185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B652"/>
+  <dimension ref="A1:B657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24569,6 +24713,56 @@
       </c>
       <c r="B652" t="n">
         <v>-0.1</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2025-07-26 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2025-08-11 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>-0.75</v>
       </c>
     </row>
   </sheetData>
@@ -24742,28 +24936,28 @@
         <v>0.0522</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06307344915810449</v>
+        <v>0.06678368831662439</v>
       </c>
       <c r="J2" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K2" t="n">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001210439542927766</v>
+        <v>0.00138082589472821</v>
       </c>
       <c r="M2" t="n">
-        <v>10.62205756932179</v>
+        <v>10.57411676989462</v>
       </c>
       <c r="N2" t="n">
-        <v>181.7359179459755</v>
+        <v>180.5049312480387</v>
       </c>
       <c r="O2" t="n">
-        <v>13.48094647812147</v>
+        <v>13.4352123633398</v>
       </c>
       <c r="P2" t="n">
-        <v>315.5151254369407</v>
+        <v>315.4781265011154</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -24820,28 +25014,28 @@
         <v>0.0476</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1923715690310546</v>
+        <v>0.179986425470448</v>
       </c>
       <c r="J3" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K3" t="n">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00866410414299823</v>
+        <v>0.007725770530899845</v>
       </c>
       <c r="M3" t="n">
-        <v>12.10744355853843</v>
+        <v>12.05139711718895</v>
       </c>
       <c r="N3" t="n">
-        <v>234.5651730093733</v>
+        <v>232.8060005530512</v>
       </c>
       <c r="O3" t="n">
-        <v>15.31552065746944</v>
+        <v>15.2579815360044</v>
       </c>
       <c r="P3" t="n">
-        <v>307.5697002961203</v>
+        <v>307.6933086304607</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -24898,28 +25092,28 @@
         <v>0.0857</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1254328037832015</v>
+        <v>0.1152324841610772</v>
       </c>
       <c r="J4" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K4" t="n">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004275369329611367</v>
+        <v>0.003662797287531827</v>
       </c>
       <c r="M4" t="n">
-        <v>11.50577143341904</v>
+        <v>11.49152029664511</v>
       </c>
       <c r="N4" t="n">
-        <v>196.6385959247457</v>
+        <v>195.7323820019861</v>
       </c>
       <c r="O4" t="n">
-        <v>14.02278845040264</v>
+        <v>13.99043894958218</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9005828639684</v>
+        <v>316.0051382199863</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -24976,28 +25170,28 @@
         <v>0.0741</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09296168595656371</v>
+        <v>0.09037624130726311</v>
       </c>
       <c r="J5" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K5" t="n">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002913952601369507</v>
+        <v>0.002800616712334114</v>
       </c>
       <c r="M5" t="n">
-        <v>10.11202980579991</v>
+        <v>10.0688940193442</v>
       </c>
       <c r="N5" t="n">
-        <v>161.3575018172731</v>
+        <v>160.1987946773965</v>
       </c>
       <c r="O5" t="n">
-        <v>12.70265727386491</v>
+        <v>12.65696625093851</v>
       </c>
       <c r="P5" t="n">
-        <v>322.4126711178367</v>
+        <v>322.4389129276966</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25054,28 +25248,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1231925004529861</v>
+        <v>0.1106891302472838</v>
       </c>
       <c r="J6" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K6" t="n">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007803287088512745</v>
+        <v>0.006398463470315807</v>
       </c>
       <c r="M6" t="n">
-        <v>8.054751475701972</v>
+        <v>8.04468665612705</v>
       </c>
       <c r="N6" t="n">
-        <v>104.3999717076477</v>
+        <v>103.9314287200963</v>
       </c>
       <c r="O6" t="n">
-        <v>10.21763043506897</v>
+        <v>10.19467648923183</v>
       </c>
       <c r="P6" t="n">
-        <v>326.8849245265789</v>
+        <v>327.0121949375494</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25132,28 +25326,28 @@
         <v>0.0674</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2275572867592385</v>
+        <v>0.2231655598368416</v>
       </c>
       <c r="J7" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K7" t="n">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03128270115484433</v>
+        <v>0.03068035407914871</v>
       </c>
       <c r="M7" t="n">
-        <v>7.466269717201715</v>
+        <v>7.41777857755751</v>
       </c>
       <c r="N7" t="n">
-        <v>87.36892797703362</v>
+        <v>86.62613133081379</v>
       </c>
       <c r="O7" t="n">
-        <v>9.347134746917561</v>
+        <v>9.307316011118017</v>
       </c>
       <c r="P7" t="n">
-        <v>324.786739167612</v>
+        <v>324.8308447837485</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25210,28 +25404,28 @@
         <v>0.081</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03559862306554023</v>
+        <v>0.03822149163958527</v>
       </c>
       <c r="J8" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K8" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0008222754426907564</v>
+        <v>0.000959326378927372</v>
       </c>
       <c r="M8" t="n">
-        <v>7.161253228724108</v>
+        <v>7.150277931226411</v>
       </c>
       <c r="N8" t="n">
-        <v>83.56900860077964</v>
+        <v>83.42517727642867</v>
       </c>
       <c r="O8" t="n">
-        <v>9.141608644039605</v>
+        <v>9.133738406393554</v>
       </c>
       <c r="P8" t="n">
-        <v>338.9588883314512</v>
+        <v>338.9324432389763</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25288,28 +25482,28 @@
         <v>0.0477</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0563176631300026</v>
+        <v>0.05174250484659712</v>
       </c>
       <c r="J9" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K9" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001724659922162641</v>
+        <v>0.001482809350198511</v>
       </c>
       <c r="M9" t="n">
-        <v>7.890818824858927</v>
+        <v>7.840535173759896</v>
       </c>
       <c r="N9" t="n">
-        <v>98.51692309431145</v>
+        <v>97.74584045910615</v>
       </c>
       <c r="O9" t="n">
-        <v>9.925569157197559</v>
+        <v>9.886649607379951</v>
       </c>
       <c r="P9" t="n">
-        <v>341.1948007725267</v>
+        <v>341.2412230545509</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25347,7 +25541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J543"/>
+  <dimension ref="A1:J547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -49651,6 +49845,214 @@
         </is>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>-36.96171647883185,175.8430664202575</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>-36.96242483030297,175.8432142397696</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>-36.96314248168354,175.84341336157613</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>-36.96383611353712,175.84378832089354</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>-36.96452687055069,175.84411890281578</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>-36.965184228672165,175.84448269718757</t>
+        </is>
+      </c>
+      <c r="H544" t="inlineStr">
+        <is>
+          <t>-36.96581237528129,175.84492719359957</t>
+        </is>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>-36.96646080485568,175.8453250670793</t>
+        </is>
+      </c>
+      <c r="J544" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>-36.96169810483439,175.84317858435475</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>-36.96242655981453,175.84320368190131</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>-36.963144408556666,175.84340358739843</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>-36.963846990827754,175.84374827870792</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>-36.96453737288636,175.84408778698085</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>-36.96516936505718,175.84452637618688</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>-36.965807395617134,175.8449418059034</t>
+        </is>
+      </c>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>-36.966455536458774,175.84533957813628</t>
+        </is>
+      </c>
+      <c r="J545" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>-36.96170338744436,175.84314633672477</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>-36.96243317158457,175.8431633200456</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>-36.96315511737253,175.84334926621506</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>-36.963853822452755,175.8437231296574</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>-36.964541795421376,175.8440746840888</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>-36.965174276616196,175.8445119428287</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>-36.96582760600096,175.8448825006013</t>
+        </is>
+      </c>
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>-36.966467426448446,175.84530682882544</t>
+        </is>
+      </c>
+      <c r="J546" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>-36.96167937441979,175.84329292348585</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>-36.9624328833333,175.8431650796907</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>-36.96310710300731,175.84359282119576</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>-36.96380791161206,175.84389213936288</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>-36.964520381195484,175.84413812916148</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>-36.96516739574426,175.8445321633085</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>-36.96575195523974,175.84510448941728</t>
+        </is>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>-36.966484139254156,175.84526079568522</t>
+        </is>
+      </c>
+      <c r="J547" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0186/nzd0186.xlsx
+++ b/data/nzd0186/nzd0186.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J547"/>
+  <dimension ref="A1:J548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18171,6 +18171,30 @@
       <c r="J547" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr"/>
+      <c r="C548" t="inlineStr"/>
+      <c r="D548" t="inlineStr"/>
+      <c r="E548" t="inlineStr"/>
+      <c r="F548" t="inlineStr"/>
+      <c r="G548" t="inlineStr"/>
+      <c r="H548" t="n">
+        <v>467.6342857142857</v>
+      </c>
+      <c r="I548" t="n">
+        <v>477.7622222222223</v>
+      </c>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -18185,7 +18209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B657"/>
+  <dimension ref="A1:B659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24763,6 +24787,26 @@
       </c>
       <c r="B657" t="n">
         <v>-0.75</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2025-09-20 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>-0.36</v>
       </c>
     </row>
   </sheetData>
@@ -24939,7 +24983,7 @@
         <v>0.06678368831662439</v>
       </c>
       <c r="J2" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K2" t="n">
         <v>401</v>
@@ -25017,7 +25061,7 @@
         <v>0.179986425470448</v>
       </c>
       <c r="J3" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K3" t="n">
         <v>420</v>
@@ -25095,7 +25139,7 @@
         <v>0.1152324841610772</v>
       </c>
       <c r="J4" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K4" t="n">
         <v>421</v>
@@ -25173,7 +25217,7 @@
         <v>0.09037624130726311</v>
       </c>
       <c r="J5" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K5" t="n">
         <v>423</v>
@@ -25251,7 +25295,7 @@
         <v>0.1106891302472838</v>
       </c>
       <c r="J6" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K6" t="n">
         <v>431</v>
@@ -25329,7 +25373,7 @@
         <v>0.2231655598368416</v>
       </c>
       <c r="J7" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K7" t="n">
         <v>422</v>
@@ -25404,28 +25448,28 @@
         <v>0.081</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03822149163958527</v>
+        <v>0.09614257005617147</v>
       </c>
       <c r="J8" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K8" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000959326378927372</v>
+        <v>0.004189097701344902</v>
       </c>
       <c r="M8" t="n">
-        <v>7.150277931226411</v>
+        <v>7.418921360504824</v>
       </c>
       <c r="N8" t="n">
-        <v>83.42517727642867</v>
+        <v>120.8011281902155</v>
       </c>
       <c r="O8" t="n">
-        <v>9.133738406393554</v>
+        <v>10.99095665491478</v>
       </c>
       <c r="P8" t="n">
-        <v>338.9324432389763</v>
+        <v>338.3478793401188</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25482,28 +25526,28 @@
         <v>0.0477</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05174250484659712</v>
+        <v>0.1127000540974261</v>
       </c>
       <c r="J9" t="n">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K9" t="n">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001482809350198511</v>
+        <v>0.004937453876900588</v>
       </c>
       <c r="M9" t="n">
-        <v>7.840535173759896</v>
+        <v>8.184989427454564</v>
       </c>
       <c r="N9" t="n">
-        <v>97.74584045910615</v>
+        <v>139.1343341815323</v>
       </c>
       <c r="O9" t="n">
-        <v>9.886649607379951</v>
+        <v>11.79552178504759</v>
       </c>
       <c r="P9" t="n">
-        <v>341.2412230545509</v>
+        <v>340.6205613843707</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -25541,7 +25585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J547"/>
+  <dimension ref="A1:J548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50053,6 +50097,34 @@
         </is>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr"/>
+      <c r="C548" t="inlineStr"/>
+      <c r="D548" t="inlineStr"/>
+      <c r="E548" t="inlineStr"/>
+      <c r="F548" t="inlineStr"/>
+      <c r="G548" t="inlineStr"/>
+      <c r="H548" t="inlineStr">
+        <is>
+          <t>-36.965355068932965,175.84626908181022</t>
+        </is>
+      </c>
+      <c r="I548" t="inlineStr">
+        <is>
+          <t>-36.96595588092298,175.84671577815985</t>
+        </is>
+      </c>
+      <c r="J548" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0186/nzd0186.xlsx
+++ b/data/nzd0186/nzd0186.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J548"/>
+  <dimension ref="A1:J549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18177,22 +18177,56 @@
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
         <is>
-          <t>2025-09-12 22:00:00+00:00</t>
+          <t>2025-09-20 22:00:05+00:00</t>
         </is>
       </c>
       <c r="B548" t="inlineStr"/>
       <c r="C548" t="inlineStr"/>
       <c r="D548" t="inlineStr"/>
-      <c r="E548" t="inlineStr"/>
+      <c r="E548" t="n">
+        <v>282.4315384615385</v>
+      </c>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr"/>
-      <c r="H548" t="n">
-        <v>467.6342857142857</v>
-      </c>
-      <c r="I548" t="n">
-        <v>477.7622222222223</v>
-      </c>
+      <c r="H548" t="inlineStr"/>
+      <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>313.1844444444445</v>
+      </c>
+      <c r="C549" t="n">
+        <v>312.66</v>
+      </c>
+      <c r="D549" t="n">
+        <v>316.1766666666667</v>
+      </c>
+      <c r="E549" t="n">
+        <v>322.0861538461539</v>
+      </c>
+      <c r="F549" t="n">
+        <v>322.6490909090909</v>
+      </c>
+      <c r="G549" t="n">
+        <v>323.9533333333333</v>
+      </c>
+      <c r="H549" t="n">
+        <v>333.7685714285714</v>
+      </c>
+      <c r="I549" t="n">
+        <v>341.5144444444445</v>
+      </c>
+      <c r="J549" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -18209,7 +18243,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B659"/>
+  <dimension ref="A1:B660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24807,6 +24841,16 @@
       </c>
       <c r="B659" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -25585,7 +25629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J548"/>
+  <dimension ref="A1:J549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50100,26 +50144,74 @@
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
         <is>
-          <t>2025-09-12 22:00:00+00:00</t>
+          <t>2025-09-20 22:00:05+00:00</t>
         </is>
       </c>
       <c r="B548" t="inlineStr"/>
       <c r="C548" t="inlineStr"/>
       <c r="D548" t="inlineStr"/>
-      <c r="E548" t="inlineStr"/>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>-36.963954427809654,175.84335277150564</t>
+        </is>
+      </c>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr"/>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>-36.965355068932965,175.84626908181022</t>
-        </is>
-      </c>
-      <c r="I548" t="inlineStr">
-        <is>
-          <t>-36.96595588092298,175.84671577815985</t>
-        </is>
-      </c>
+      <c r="H548" t="inlineStr"/>
+      <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>-36.96170996317082,175.84310619520033</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>-36.962416813284285,175.84326317988132</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>-36.9631316080874,175.84346851844975</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>-36.96383989926231,175.84377438464404</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>-36.96453296939893,175.8441008334339</t>
+        </is>
+      </c>
+      <c r="G549" t="inlineStr">
+        <is>
+          <t>-36.96518901128319,175.84446864274233</t>
+        </is>
+      </c>
+      <c r="H549" t="inlineStr">
+        <is>
+          <t>-36.96582641390098,175.84488599869994</t>
+        </is>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>-36.966461782623746,175.8453223739542</t>
+        </is>
+      </c>
+      <c r="J549" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0186/nzd0186.xlsx
+++ b/data/nzd0186/nzd0186.xlsx
@@ -25024,28 +25024,28 @@
         <v>0.0522</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06678368831662439</v>
+        <v>0.06485540600534877</v>
       </c>
       <c r="J2" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K2" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00138082589472821</v>
+        <v>0.001308818549185742</v>
       </c>
       <c r="M2" t="n">
-        <v>10.57411676989462</v>
+        <v>10.55809609412822</v>
       </c>
       <c r="N2" t="n">
-        <v>180.5049312480387</v>
+        <v>180.0960044456509</v>
       </c>
       <c r="O2" t="n">
-        <v>13.4352123633398</v>
+        <v>13.41998526249753</v>
       </c>
       <c r="P2" t="n">
-        <v>315.4781265011154</v>
+        <v>315.497421835515</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -25102,28 +25102,28 @@
         <v>0.0476</v>
       </c>
       <c r="I3" t="n">
-        <v>0.179986425470448</v>
+        <v>0.180116896253032</v>
       </c>
       <c r="J3" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K3" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007725770530899845</v>
+        <v>0.007774545406806443</v>
       </c>
       <c r="M3" t="n">
-        <v>12.05139711718895</v>
+        <v>12.02351135168615</v>
       </c>
       <c r="N3" t="n">
-        <v>232.8060005530512</v>
+        <v>232.2532118056478</v>
       </c>
       <c r="O3" t="n">
-        <v>15.2579815360044</v>
+        <v>15.23985602968899</v>
       </c>
       <c r="P3" t="n">
-        <v>307.6933086304607</v>
+        <v>307.6919982491062</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -25180,28 +25180,28 @@
         <v>0.0857</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1152324841610772</v>
+        <v>0.113938724246805</v>
       </c>
       <c r="J4" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K4" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003662797287531827</v>
+        <v>0.003598249157175548</v>
       </c>
       <c r="M4" t="n">
-        <v>11.49152029664511</v>
+        <v>11.47115296898015</v>
       </c>
       <c r="N4" t="n">
-        <v>195.7323820019861</v>
+        <v>195.2873283149744</v>
       </c>
       <c r="O4" t="n">
-        <v>13.99043894958218</v>
+        <v>13.97452426077448</v>
       </c>
       <c r="P4" t="n">
-        <v>316.0051382199863</v>
+        <v>316.0184955229551</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -25258,28 +25258,28 @@
         <v>0.0741</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09037624130726311</v>
+        <v>0.07033405456806852</v>
       </c>
       <c r="J5" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K5" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002800616712334114</v>
+        <v>0.001670136640251063</v>
       </c>
       <c r="M5" t="n">
-        <v>10.0688940193442</v>
+        <v>10.12205539788869</v>
       </c>
       <c r="N5" t="n">
-        <v>160.1987946773965</v>
+        <v>163.6496914389538</v>
       </c>
       <c r="O5" t="n">
-        <v>12.65696625093851</v>
+        <v>12.7925639118573</v>
       </c>
       <c r="P5" t="n">
-        <v>322.4389129276966</v>
+        <v>322.6438638399904</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -25336,28 +25336,28 @@
         <v>0.06469999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1106891302472838</v>
+        <v>0.1074519429335534</v>
       </c>
       <c r="J6" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K6" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006398463470315807</v>
+        <v>0.006053460234611951</v>
       </c>
       <c r="M6" t="n">
-        <v>8.04468665612705</v>
+        <v>8.042606726217068</v>
       </c>
       <c r="N6" t="n">
-        <v>103.9314287200963</v>
+        <v>103.8113581226779</v>
       </c>
       <c r="O6" t="n">
-        <v>10.19467648923183</v>
+        <v>10.1887859003258</v>
       </c>
       <c r="P6" t="n">
-        <v>327.0121949375494</v>
+        <v>327.0453598952425</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -25414,28 +25414,28 @@
         <v>0.0674</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2231655598368416</v>
+        <v>0.2200892308983089</v>
       </c>
       <c r="J7" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K7" t="n">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L7" t="n">
-        <v>0.03068035407914871</v>
+        <v>0.02997472264328571</v>
       </c>
       <c r="M7" t="n">
-        <v>7.41777857755751</v>
+        <v>7.415603277702214</v>
       </c>
       <c r="N7" t="n">
-        <v>86.62613133081379</v>
+        <v>86.52604454009564</v>
       </c>
       <c r="O7" t="n">
-        <v>9.307316011118017</v>
+        <v>9.301937676640048</v>
       </c>
       <c r="P7" t="n">
-        <v>324.8308447837485</v>
+        <v>324.8619530129777</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -25492,28 +25492,28 @@
         <v>0.081</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09614257005617147</v>
+        <v>0.03541755873489051</v>
       </c>
       <c r="J8" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K8" t="n">
         <v>431</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004189097701344902</v>
+        <v>0.0008270553197400332</v>
       </c>
       <c r="M8" t="n">
-        <v>7.418921360504824</v>
+        <v>7.14883783102899</v>
       </c>
       <c r="N8" t="n">
-        <v>120.8011281902155</v>
+        <v>83.31895064352877</v>
       </c>
       <c r="O8" t="n">
-        <v>10.99095665491478</v>
+        <v>9.127921485394623</v>
       </c>
       <c r="P8" t="n">
-        <v>338.3478793401188</v>
+        <v>338.9607995243402</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -25570,28 +25570,28 @@
         <v>0.0477</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1127000540974261</v>
+        <v>0.05125713064346021</v>
       </c>
       <c r="J9" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K9" t="n">
         <v>436</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004937453876900588</v>
+        <v>0.00146223205565521</v>
       </c>
       <c r="M9" t="n">
-        <v>8.184989427454564</v>
+        <v>7.824621347747198</v>
       </c>
       <c r="N9" t="n">
-        <v>139.1343341815323</v>
+        <v>97.52426970690324</v>
       </c>
       <c r="O9" t="n">
-        <v>11.79552178504759</v>
+        <v>9.875437696978461</v>
       </c>
       <c r="P9" t="n">
-        <v>340.6205613843707</v>
+        <v>341.2461750766568</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">

--- a/data/nzd0186/nzd0186.xlsx
+++ b/data/nzd0186/nzd0186.xlsx
@@ -25018,10 +25018,10 @@
         <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0434</v>
+        <v>0.0392</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0522</v>
+        <v>0.056</v>
       </c>
       <c r="I2" t="n">
         <v>0.06487595639033905</v>
@@ -25093,13 +25093,13 @@
         <v>0.1429234667629369</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04</v>
+        <v>0.065</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0381</v>
+        <v>0.0517</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0476</v>
+        <v>0.0801</v>
       </c>
       <c r="I3" t="n">
         <v>0.180116896253032</v>
@@ -25171,13 +25171,13 @@
         <v>0.2858469335249093</v>
       </c>
       <c r="F4" t="n">
-        <v>0.075</v>
+        <v>0.045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.0371</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0857</v>
+        <v>0.062</v>
       </c>
       <c r="I4" t="n">
         <v>0.1139374885573479</v>
@@ -25249,13 +25249,13 @@
         <v>0.4286744960317649</v>
       </c>
       <c r="F5" t="n">
-        <v>0.065</v>
+        <v>0.045</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0547</v>
+        <v>0.0385</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0741</v>
+        <v>0.0618</v>
       </c>
       <c r="I5" t="n">
         <v>0.07032073709611722</v>
@@ -25327,13 +25327,13 @@
         <v>0.5713217546392608</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0521</v>
+        <v>0.0319</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06469999999999999</v>
+        <v>0.0542</v>
       </c>
       <c r="I6" t="n">
         <v>0.107428994430586</v>
@@ -25405,13 +25405,13 @@
         <v>0.7142452214022535</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0549</v>
+        <v>0.0574</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0674</v>
+        <v>0.1874</v>
       </c>
       <c r="I7" t="n">
         <v>0.2201011913197142</v>
@@ -25483,13 +25483,13 @@
         <v>0.8571480057363041</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0617</v>
+        <v>0.0381</v>
       </c>
       <c r="H8" t="n">
-        <v>0.081</v>
+        <v>0.06</v>
       </c>
       <c r="I8" t="n">
         <v>0.03541942220654425</v>
@@ -25561,13 +25561,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0438</v>
+        <v>0.0491</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0477</v>
+        <v>0.068</v>
       </c>
       <c r="I9" t="n">
         <v>0.05128406476904342</v>
